--- a/tools/anssi/anssi-recommandations-pour-la-protection-des-sie.xlsx
+++ b/tools/anssi/anssi-recommandations-pour-la-protection-des-sie.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
   <si>
     <t>library_urn</t>
   </si>
@@ -33,7 +33,7 @@
     <t>library_ref_id</t>
   </si>
   <si>
-    <t>ANSSI</t>
+    <t>ANSSI-REC-SIE</t>
   </si>
   <si>
     <t>library_name</t>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>library_provider</t>
+  </si>
+  <si>
+    <t>ANSSI</t>
   </si>
   <si>
     <t>library_packager</t>
@@ -2673,7 +2676,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2681,10 +2684,10 @@
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2692,10 +2695,10 @@
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2703,7 +2706,7 @@
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>6</v>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>8</v>
@@ -2725,10 +2728,10 @@
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2736,26 +2739,26 @@
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2789,25 +2792,25 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>25</v>
-      </c>
       <c r="D1" t="s" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
@@ -2820,7 +2823,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -2832,10 +2835,10 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" t="s" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -2847,10 +2850,10 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" t="s" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -2862,53 +2865,53 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" t="s" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" ht="156.55" customHeight="1">
       <c r="A6" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="13">
         <v>5</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" ht="195.55" customHeight="1">
       <c r="A7" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="13">
         <v>5</v>
       </c>
       <c r="C7" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="12"/>
     </row>
@@ -2919,74 +2922,74 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" t="s" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" ht="117.55" customHeight="1">
       <c r="A9" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="13">
         <v>5</v>
       </c>
       <c r="C9" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="12"/>
     </row>
     <row r="10" ht="189.5" customHeight="1">
       <c r="A10" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="13">
         <v>5</v>
       </c>
       <c r="C10" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="12"/>
     </row>
     <row r="11" ht="32" customHeight="1">
       <c r="A11" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="13">
         <v>5</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="12"/>
     </row>
@@ -2997,10 +3000,10 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" t="s" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -3012,32 +3015,32 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" t="s" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" ht="48" customHeight="1">
       <c r="A14" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="13">
         <v>5</v>
       </c>
       <c r="C14" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s" s="5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="12"/>
     </row>
@@ -3048,32 +3051,32 @@
       </c>
       <c r="C15" s="12"/>
       <c r="D15" t="s" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="13">
         <v>5</v>
       </c>
       <c r="C16" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="12"/>
     </row>
@@ -3084,10 +3087,10 @@
       </c>
       <c r="C17" s="12"/>
       <c r="D17" t="s" s="5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s" s="5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -3099,32 +3102,32 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" t="s" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" ht="80" customHeight="1">
       <c r="A19" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="13">
         <v>5</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s" s="5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" s="12"/>
     </row>
@@ -3135,53 +3138,53 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" t="s" s="5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21" ht="32" customHeight="1">
       <c r="A21" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="13">
         <v>5</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s" s="5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="13">
         <v>5</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s" s="5">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="5">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G22" s="12"/>
     </row>
@@ -3192,53 +3195,53 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" t="s" s="5">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s" s="5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24" ht="32" customHeight="1">
       <c r="A24" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="13">
         <v>5</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s" s="5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" s="12"/>
     </row>
     <row r="25" ht="48" customHeight="1">
       <c r="A25" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="13">
         <v>5</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s" s="5">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s" s="5">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G25" s="12"/>
     </row>
@@ -3249,10 +3252,10 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" t="s" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s" s="5">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -3264,53 +3267,53 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" t="s" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s" s="5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="13">
         <v>4</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G28" s="12"/>
     </row>
     <row r="29" ht="80" customHeight="1">
       <c r="A29" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="13">
         <v>4</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G29" s="12"/>
     </row>
@@ -3321,10 +3324,10 @@
       </c>
       <c r="C30" s="12"/>
       <c r="D30" t="s" s="5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -3336,32 +3339,32 @@
       </c>
       <c r="C31" s="12"/>
       <c r="D31" t="s" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" ht="80" customHeight="1">
       <c r="A32" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="13">
         <v>5</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F32" t="s" s="5">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G32" s="12"/>
     </row>
@@ -3372,32 +3375,32 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" t="s" s="5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s" s="5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
     </row>
     <row r="34" ht="80" customHeight="1">
       <c r="A34" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="13">
         <v>5</v>
       </c>
       <c r="C34" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s" s="5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s" s="5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G34" s="12"/>
     </row>
@@ -3408,32 +3411,32 @@
       </c>
       <c r="C35" s="12"/>
       <c r="D35" t="s" s="5">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s" s="5">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="13">
         <v>5</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s" s="5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s" s="5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G36" s="12"/>
     </row>
@@ -3444,32 +3447,32 @@
       </c>
       <c r="C37" s="12"/>
       <c r="D37" t="s" s="5">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s" s="5">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
     </row>
     <row r="38" ht="96" customHeight="1">
       <c r="A38" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="13">
         <v>4</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s" s="5">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s" s="5">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s" s="5">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G38" s="12"/>
     </row>
@@ -3480,32 +3483,32 @@
       </c>
       <c r="C39" s="12"/>
       <c r="D39" t="s" s="5">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s" s="5">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="13">
         <v>4</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s" s="5">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s" s="5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G40" s="12"/>
     </row>
@@ -3516,32 +3519,32 @@
       </c>
       <c r="C41" s="12"/>
       <c r="D41" t="s" s="5">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s" s="5">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="13">
         <v>4</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s" s="5">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s" s="5">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s" s="5">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G42" s="12"/>
     </row>
@@ -3552,32 +3555,32 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" t="s" s="5">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s" s="5">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" ht="192" customHeight="1">
       <c r="A44" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" s="13">
         <v>4</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s" s="5">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s" s="5">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F44" t="s" s="5">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G44" s="12"/>
     </row>
@@ -3588,10 +3591,10 @@
       </c>
       <c r="C45" s="12"/>
       <c r="D45" t="s" s="5">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s" s="5">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -3603,74 +3606,74 @@
       </c>
       <c r="C46" s="12"/>
       <c r="D46" t="s" s="5">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s" s="5">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" s="13">
         <v>4</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s" s="5">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s" s="5">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F47" t="s" s="5">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G47" s="12"/>
     </row>
     <row r="48" ht="80" customHeight="1">
       <c r="A48" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48" s="13">
         <v>4</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s" s="5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s" s="5">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F48" t="s" s="5">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G48" s="12"/>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B49" s="13">
         <v>4</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s" s="5">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E49" t="s" s="5">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F49" t="s" s="5">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G49" s="12"/>
     </row>
@@ -3681,95 +3684,95 @@
       </c>
       <c r="C50" s="12"/>
       <c r="D50" t="s" s="5">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E50" t="s" s="5">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
     <row r="51" ht="32" customHeight="1">
       <c r="A51" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51" s="13">
         <v>4</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s" s="5">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E51" t="s" s="5">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F51" t="s" s="5">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G51" s="12"/>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B52" s="13">
         <v>4</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s" s="5">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s" s="5">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F52" t="s" s="5">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G52" s="12"/>
     </row>
     <row r="53" ht="48" customHeight="1">
       <c r="A53" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B53" s="13">
         <v>4</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s" s="5">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E53" t="s" s="5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F53" t="s" s="5">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G53" s="12"/>
     </row>
     <row r="54" ht="16" customHeight="1">
       <c r="A54" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B54" s="13">
         <v>4</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s" s="5">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E54" t="s" s="5">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F54" t="s" s="5">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G54" s="12"/>
     </row>
@@ -3780,32 +3783,32 @@
       </c>
       <c r="C55" s="12"/>
       <c r="D55" t="s" s="5">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s" s="5">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B56" s="13">
         <v>4</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s" s="5">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E56" t="s" s="5">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F56" t="s" s="5">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G56" s="12"/>
     </row>
@@ -3816,10 +3819,10 @@
       </c>
       <c r="C57" s="12"/>
       <c r="D57" t="s" s="5">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E57" t="s" s="5">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -3831,53 +3834,53 @@
       </c>
       <c r="C58" s="12"/>
       <c r="D58" t="s" s="5">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E58" t="s" s="5">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" ht="32" customHeight="1">
       <c r="A59" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B59" s="13">
         <v>4</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s" s="5">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F59" t="s" s="5">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G59" s="12"/>
     </row>
     <row r="60" ht="16" customHeight="1">
       <c r="A60" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B60" s="13">
         <v>4</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s" s="5">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s" s="5">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F60" t="s" s="5">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G60" s="12"/>
     </row>
@@ -3888,32 +3891,32 @@
       </c>
       <c r="C61" s="12"/>
       <c r="D61" t="s" s="5">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E61" t="s" s="5">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
     </row>
     <row r="62" ht="16" customHeight="1">
       <c r="A62" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B62" s="13">
         <v>4</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D62" t="s" s="5">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s" s="5">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F62" t="s" s="5">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G62" s="12"/>
     </row>
@@ -3924,53 +3927,53 @@
       </c>
       <c r="C63" s="12"/>
       <c r="D63" t="s" s="5">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s" s="5">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
     </row>
     <row r="64" ht="16" customHeight="1">
       <c r="A64" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B64" s="13">
         <v>4</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D64" t="s" s="5">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E64" t="s" s="5">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s" s="5">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G64" s="12"/>
     </row>
     <row r="65" ht="32" customHeight="1">
       <c r="A65" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B65" s="13">
         <v>4</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D65" t="s" s="5">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s" s="5">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F65" t="s" s="5">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G65" s="12"/>
     </row>
@@ -3981,10 +3984,10 @@
       </c>
       <c r="C66" s="12"/>
       <c r="D66" t="s" s="5">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E66" t="s" s="5">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
@@ -3996,32 +3999,32 @@
       </c>
       <c r="C67" s="12"/>
       <c r="D67" t="s" s="5">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s" s="5">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
     </row>
     <row r="68" ht="16" customHeight="1">
       <c r="A68" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B68" s="13">
         <v>5</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D68" t="s" s="5">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s" s="5">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F68" t="s" s="5">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G68" s="12"/>
     </row>
@@ -4032,32 +4035,32 @@
       </c>
       <c r="C69" s="12"/>
       <c r="D69" t="s" s="5">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E69" t="s" s="5">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
     </row>
     <row r="70" ht="32" customHeight="1">
       <c r="A70" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B70" s="13">
         <v>5</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D70" t="s" s="5">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s" s="5">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F70" t="s" s="5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G70" s="12"/>
     </row>
@@ -4071,7 +4074,7 @@
         <v>4</v>
       </c>
       <c r="E71" t="s" s="5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -4083,10 +4086,10 @@
       </c>
       <c r="C72" s="12"/>
       <c r="D72" t="s" s="5">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E72" t="s" s="5">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -4098,95 +4101,95 @@
       </c>
       <c r="C73" s="12"/>
       <c r="D73" t="s" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E73" t="s" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
     </row>
     <row r="74" ht="64" customHeight="1">
       <c r="A74" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B74" s="13">
         <v>4</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D74" t="s" s="5">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E74" t="s" s="5">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F74" t="s" s="5">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G74" s="12"/>
     </row>
     <row r="75" ht="48" customHeight="1">
       <c r="A75" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B75" s="13">
         <v>4</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s" s="5">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E75" t="s" s="5">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F75" t="s" s="5">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G75" s="12"/>
     </row>
     <row r="76" ht="32" customHeight="1">
       <c r="A76" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B76" s="13">
         <v>4</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D76" t="s" s="5">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E76" t="s" s="5">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F76" t="s" s="5">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G76" s="12"/>
     </row>
     <row r="77" ht="16" customHeight="1">
       <c r="A77" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B77" s="13">
         <v>4</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s" s="5">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E77" t="s" s="5">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F77" t="s" s="5">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G77" s="12"/>
     </row>
@@ -4197,95 +4200,95 @@
       </c>
       <c r="C78" s="12"/>
       <c r="D78" t="s" s="5">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E78" t="s" s="5">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
     </row>
     <row r="79" ht="96" customHeight="1">
       <c r="A79" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B79" s="13">
         <v>4</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s" s="5">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E79" t="s" s="5">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F79" t="s" s="5">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G79" s="12"/>
     </row>
     <row r="80" ht="112" customHeight="1">
       <c r="A80" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B80" s="13">
         <v>4</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D80" t="s" s="5">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E80" t="s" s="5">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F80" t="s" s="5">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G80" s="12"/>
     </row>
     <row r="81" ht="16" customHeight="1">
       <c r="A81" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B81" s="13">
         <v>4</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D81" t="s" s="5">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s" s="5">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F81" t="s" s="5">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G81" s="12"/>
     </row>
     <row r="82" ht="16" customHeight="1">
       <c r="A82" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B82" s="13">
         <v>4</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D82" t="s" s="5">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s" s="5">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F82" t="s" s="5">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G82" s="12"/>
     </row>
@@ -4296,10 +4299,10 @@
       </c>
       <c r="C83" s="12"/>
       <c r="D83" t="s" s="5">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E83" t="s" s="5">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
@@ -4311,32 +4314,32 @@
       </c>
       <c r="C84" s="12"/>
       <c r="D84" t="s" s="5">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E84" t="s" s="5">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
     </row>
     <row r="85" ht="32" customHeight="1">
       <c r="A85" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B85" s="13">
         <v>4</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D85" t="s" s="5">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E85" t="s" s="5">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F85" t="s" s="5">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G85" s="12"/>
     </row>
@@ -4347,74 +4350,74 @@
       </c>
       <c r="C86" s="12"/>
       <c r="D86" t="s" s="5">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E86" t="s" s="5">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
     </row>
     <row r="87" ht="16" customHeight="1">
       <c r="A87" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B87" s="13">
         <v>4</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D87" t="s" s="5">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E87" t="s" s="5">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F87" t="s" s="5">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G87" s="12"/>
     </row>
     <row r="88" ht="32" customHeight="1">
       <c r="A88" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B88" s="13">
         <v>4</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s" s="5">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E88" t="s" s="5">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F88" t="s" s="5">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G88" s="12"/>
     </row>
     <row r="89" ht="16" customHeight="1">
       <c r="A89" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B89" s="13">
         <v>4</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D89" t="s" s="5">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E89" t="s" s="5">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F89" t="s" s="5">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G89" s="12"/>
     </row>
@@ -4425,137 +4428,137 @@
       </c>
       <c r="C90" s="12"/>
       <c r="D90" t="s" s="5">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E90" t="s" s="5">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
     </row>
     <row r="91" ht="32" customHeight="1">
       <c r="A91" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B91" s="13">
         <v>4</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D91" t="s" s="5">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E91" t="s" s="5">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F91" t="s" s="5">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G91" s="12"/>
     </row>
     <row r="92" ht="16" customHeight="1">
       <c r="A92" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B92" s="13">
         <v>4</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s" s="5">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E92" t="s" s="5">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F92" t="s" s="5">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G92" s="12"/>
     </row>
     <row r="93" ht="64" customHeight="1">
       <c r="A93" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B93" s="13">
         <v>4</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D93" t="s" s="5">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E93" t="s" s="5">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F93" t="s" s="5">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G93" s="12"/>
     </row>
     <row r="94" ht="32" customHeight="1">
       <c r="A94" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B94" s="13">
         <v>4</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D94" t="s" s="5">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E94" t="s" s="5">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F94" t="s" s="5">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G94" s="12"/>
     </row>
     <row r="95" ht="32" customHeight="1">
       <c r="A95" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B95" s="13">
         <v>4</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D95" t="s" s="5">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E95" t="s" s="5">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F95" t="s" s="5">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G95" s="12"/>
     </row>
     <row r="96" ht="16" customHeight="1">
       <c r="A96" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B96" s="13">
         <v>4</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D96" t="s" s="5">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E96" t="s" s="5">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F96" t="s" s="5">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G96" s="12"/>
     </row>
@@ -4566,32 +4569,32 @@
       </c>
       <c r="C97" s="12"/>
       <c r="D97" t="s" s="5">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E97" t="s" s="5">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
     </row>
     <row r="98" ht="48" customHeight="1">
       <c r="A98" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B98" s="13">
         <v>4</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D98" t="s" s="5">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E98" t="s" s="5">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F98" t="s" s="5">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G98" s="12"/>
     </row>
@@ -4602,32 +4605,32 @@
       </c>
       <c r="C99" s="12"/>
       <c r="D99" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E99" t="s" s="5">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
     </row>
     <row r="100" ht="16" customHeight="1">
       <c r="A100" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B100" s="13">
         <v>4</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D100" t="s" s="5">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E100" t="s" s="5">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F100" t="s" s="5">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G100" s="12"/>
     </row>
@@ -4641,7 +4644,7 @@
         <v>5</v>
       </c>
       <c r="E101" t="s" s="5">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
@@ -4653,10 +4656,10 @@
       </c>
       <c r="C102" s="12"/>
       <c r="D102" t="s" s="5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E102" t="s" s="5">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
@@ -4668,53 +4671,53 @@
       </c>
       <c r="C103" s="12"/>
       <c r="D103" t="s" s="5">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E103" t="s" s="5">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
     </row>
     <row r="104" ht="16" customHeight="1">
       <c r="A104" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B104" s="13">
         <v>4</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D104" t="s" s="5">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E104" t="s" s="5">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F104" t="s" s="5">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G104" s="12"/>
     </row>
     <row r="105" ht="32" customHeight="1">
       <c r="A105" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B105" s="13">
         <v>4</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D105" t="s" s="5">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E105" t="s" s="5">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F105" t="s" s="5">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G105" s="12"/>
     </row>
@@ -4725,32 +4728,32 @@
       </c>
       <c r="C106" s="12"/>
       <c r="D106" t="s" s="5">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E106" t="s" s="5">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" ht="48" customHeight="1">
       <c r="A107" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B107" s="13">
         <v>4</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D107" t="s" s="5">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E107" t="s" s="5">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F107" t="s" s="5">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G107" s="12"/>
     </row>
@@ -4761,10 +4764,10 @@
       </c>
       <c r="C108" s="12"/>
       <c r="D108" t="s" s="5">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E108" t="s" s="5">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
@@ -4776,10 +4779,10 @@
       </c>
       <c r="C109" s="12"/>
       <c r="D109" t="s" s="5">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E109" t="s" s="5">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
@@ -4791,53 +4794,53 @@
       </c>
       <c r="C110" s="12"/>
       <c r="D110" t="s" s="5">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E110" t="s" s="5">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
     </row>
     <row r="111" ht="16" customHeight="1">
       <c r="A111" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B111" s="13">
         <v>5</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D111" t="s" s="5">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E111" t="s" s="5">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F111" t="s" s="5">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G111" s="12"/>
     </row>
     <row r="112" ht="16" customHeight="1">
       <c r="A112" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B112" s="13">
         <v>5</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D112" t="s" s="5">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E112" t="s" s="5">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F112" t="s" s="5">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G112" s="12"/>
     </row>
@@ -4848,53 +4851,53 @@
       </c>
       <c r="C113" s="12"/>
       <c r="D113" t="s" s="5">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E113" t="s" s="5">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
     </row>
     <row r="114" ht="64" customHeight="1">
       <c r="A114" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B114" s="13">
         <v>5</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D114" t="s" s="5">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E114" t="s" s="5">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F114" t="s" s="5">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G114" s="12"/>
     </row>
     <row r="115" ht="16" customHeight="1">
       <c r="A115" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B115" s="13">
         <v>5</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D115" t="s" s="5">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E115" t="s" s="5">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F115" t="s" s="5">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G115" s="12"/>
     </row>
@@ -4905,10 +4908,10 @@
       </c>
       <c r="C116" s="12"/>
       <c r="D116" t="s" s="5">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E116" t="s" s="5">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
@@ -4920,53 +4923,53 @@
       </c>
       <c r="C117" s="12"/>
       <c r="D117" t="s" s="5">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E117" t="s" s="5">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" ht="16" customHeight="1">
       <c r="A118" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B118" s="13">
         <v>5</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D118" t="s" s="5">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E118" t="s" s="5">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F118" t="s" s="5">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G118" s="12"/>
     </row>
     <row r="119" ht="32" customHeight="1">
       <c r="A119" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B119" s="13">
         <v>5</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D119" t="s" s="5">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E119" t="s" s="5">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F119" t="s" s="5">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G119" s="12"/>
     </row>
@@ -4977,10 +4980,10 @@
       </c>
       <c r="C120" s="12"/>
       <c r="D120" t="s" s="5">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E120" t="s" s="5">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
@@ -4992,74 +4995,74 @@
       </c>
       <c r="C121" s="12"/>
       <c r="D121" t="s" s="5">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E121" t="s" s="5">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
     </row>
     <row r="122" ht="16" customHeight="1">
       <c r="A122" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B122" s="13">
         <v>5</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D122" t="s" s="5">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E122" t="s" s="5">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F122" t="s" s="5">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G122" s="12"/>
     </row>
     <row r="123" ht="32" customHeight="1">
       <c r="A123" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B123" s="13">
         <v>5</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s" s="5">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E123" t="s" s="5">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F123" t="s" s="5">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G123" s="12"/>
     </row>
     <row r="124" ht="16" customHeight="1">
       <c r="A124" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B124" s="13">
         <v>5</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D124" t="s" s="5">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E124" t="s" s="5">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F124" t="s" s="5">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G124" s="12"/>
     </row>
@@ -5070,32 +5073,32 @@
       </c>
       <c r="C125" s="12"/>
       <c r="D125" t="s" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E125" t="s" s="5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
     </row>
     <row r="126" ht="16" customHeight="1">
       <c r="A126" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B126" s="13">
         <v>5</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D126" t="s" s="5">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E126" t="s" s="5">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F126" t="s" s="5">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G126" s="12"/>
     </row>
@@ -5106,10 +5109,10 @@
       </c>
       <c r="C127" s="12"/>
       <c r="D127" t="s" s="5">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E127" t="s" s="5">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
@@ -5121,74 +5124,74 @@
       </c>
       <c r="C128" s="12"/>
       <c r="D128" t="s" s="5">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E128" t="s" s="5">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
     </row>
     <row r="129" ht="32" customHeight="1">
       <c r="A129" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B129" s="13">
         <v>4</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D129" t="s" s="5">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E129" t="s" s="5">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F129" t="s" s="5">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G129" s="12"/>
     </row>
     <row r="130" ht="16" customHeight="1">
       <c r="A130" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B130" s="13">
         <v>4</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D130" t="s" s="5">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E130" t="s" s="5">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F130" t="s" s="5">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G130" s="12"/>
     </row>
     <row r="131" ht="32" customHeight="1">
       <c r="A131" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B131" s="13">
         <v>4</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D131" t="s" s="5">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E131" t="s" s="5">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F131" t="s" s="5">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G131" s="12"/>
     </row>
@@ -5199,32 +5202,32 @@
       </c>
       <c r="C132" s="12"/>
       <c r="D132" t="s" s="5">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E132" t="s" s="5">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
     </row>
     <row r="133" ht="32" customHeight="1">
       <c r="A133" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B133" s="13">
         <v>4</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D133" t="s" s="5">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E133" t="s" s="5">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F133" t="s" s="5">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G133" s="12"/>
     </row>
@@ -5238,7 +5241,7 @@
         <v>6</v>
       </c>
       <c r="E134" t="s" s="5">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
@@ -5250,53 +5253,53 @@
       </c>
       <c r="C135" s="12"/>
       <c r="D135" t="s" s="5">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E135" t="s" s="5">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
     </row>
     <row r="136" ht="32" customHeight="1">
       <c r="A136" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B136" s="13">
         <v>3</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D136" t="s" s="5">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E136" t="s" s="5">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F136" t="s" s="5">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G136" s="12"/>
     </row>
     <row r="137" ht="32" customHeight="1">
       <c r="A137" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B137" s="13">
         <v>3</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D137" t="s" s="5">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E137" t="s" s="5">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F137" t="s" s="5">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G137" s="12"/>
     </row>
@@ -5307,10 +5310,10 @@
       </c>
       <c r="C138" s="12"/>
       <c r="D138" t="s" s="5">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E138" t="s" s="5">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
@@ -5322,32 +5325,32 @@
       </c>
       <c r="C139" s="12"/>
       <c r="D139" t="s" s="5">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E139" t="s" s="5">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
     </row>
     <row r="140" ht="32" customHeight="1">
       <c r="A140" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B140" s="13">
         <v>4</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D140" t="s" s="5">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E140" t="s" s="5">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F140" t="s" s="5">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G140" s="12"/>
     </row>
@@ -5358,32 +5361,32 @@
       </c>
       <c r="C141" s="12"/>
       <c r="D141" t="s" s="5">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E141" t="s" s="5">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
     </row>
     <row r="142" ht="48" customHeight="1">
       <c r="A142" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B142" s="13">
         <v>4</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D142" t="s" s="5">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E142" t="s" s="5">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F142" t="s" s="5">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G142" s="12"/>
     </row>
@@ -5394,53 +5397,53 @@
       </c>
       <c r="C143" s="12"/>
       <c r="D143" t="s" s="5">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E143" t="s" s="5">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
     </row>
     <row r="144" ht="103.75" customHeight="1">
       <c r="A144" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B144" s="13">
         <v>4</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D144" t="s" s="5">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E144" t="s" s="5">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F144" t="s" s="5">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G144" s="12"/>
     </row>
     <row r="145" ht="252.95" customHeight="1">
       <c r="A145" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B145" s="13">
         <v>4</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D145" t="s" s="5">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E145" t="s" s="5">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F145" t="s" s="5">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G145" s="12"/>
     </row>
@@ -5470,65 +5473,65 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
     <row r="2" ht="104.55" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" ht="91.55" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s" s="5">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
     <row r="4" ht="65.55" customHeight="1">
       <c r="A4" t="s" s="5">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C4" t="s" s="5">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" ht="117.55" customHeight="1">
       <c r="A5" t="s" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>

--- a/tools/anssi/anssi-recommandations-pour-la-protection-des-sie.xlsx
+++ b/tools/anssi/anssi-recommandations-pour-la-protection-des-sie.xlsx
@@ -33,13 +33,13 @@
     <t>library_ref_id</t>
   </si>
   <si>
-    <t>ANSSI-RECOMMANDATIONS-POUR-LA-PROTECTION-DES-SYSTEMES-D-INFORMATION-ESSENTIELS</t>
+    <t>ANSSI-REC-SIE</t>
   </si>
   <si>
     <t>library_name</t>
   </si>
   <si>
-    <t>ANSSI - Recommandations pour la protection des systèmes d’information essentiels</t>
+    <t>Recommandations pour la protection des systèmes d’information essentiels</t>
   </si>
   <si>
     <t>library_description</t>
@@ -1391,7 +1391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1406,16 +1406,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1436,16 +1436,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,20 +1455,17 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1486,28 +1483,19 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1530,8 +1518,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1682,9 +1670,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1764,7 +1752,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1791,10 +1779,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2041,9 +2029,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -2321,7 +2309,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2348,10 +2336,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2610,170 +2598,170 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="130.55" customHeight="1">
       <c r="A6" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" t="s" s="2">
         <v>26</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2792,2672 +2780,2672 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.85156" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.5625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="41.8438" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.6172" style="8" customWidth="1"/>
-    <col min="7" max="7" width="42.6484" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.85156" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.8516" style="7" customWidth="1"/>
+    <col min="6" max="6" width="29.6719" style="7" customWidth="1"/>
+    <col min="7" max="7" width="42.6719" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="9">
+      <c r="A1" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D1" t="s" s="8">
         <v>29</v>
       </c>
-      <c r="E1" t="s" s="9">
+      <c r="E1" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="F1" t="s" s="9">
+      <c r="F1" t="s" s="8">
         <v>31</v>
       </c>
-      <c r="G1" t="s" s="9">
+      <c r="G1" t="s" s="8">
         <v>32</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="12">
+      <c r="E2" t="s" s="11">
         <v>33</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="32" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" t="s" s="16">
+      <c r="C3" s="12"/>
+      <c r="D3" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="E3" t="s" s="16">
+      <c r="E3" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" t="s" s="16">
+      <c r="C4" s="12"/>
+      <c r="D4" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="E4" t="s" s="16">
+      <c r="E4" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" ht="112" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15">
-        <v>4</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" t="s" s="16">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="E5" t="s" s="16">
+      <c r="E5" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" ht="156.55" customHeight="1">
-      <c r="A6" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B6" s="13">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="16">
+      <c r="C6" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D6" t="s" s="16">
+      <c r="D6" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="E6" t="s" s="16">
+      <c r="E6" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="F6" t="s" s="6">
+      <c r="F6" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" ht="195.55" customHeight="1">
-      <c r="A7" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="16">
+      <c r="C7" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D7" t="s" s="16">
+      <c r="D7" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="E7" t="s" s="16">
+      <c r="E7" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="F7" t="s" s="6">
+      <c r="F7" t="s" s="5">
         <v>47</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" t="s" s="16">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="E8" t="s" s="16">
+      <c r="E8" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" ht="117.55" customHeight="1">
-      <c r="A9" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="A9" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13">
         <v>5</v>
       </c>
-      <c r="C9" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s" s="16">
+      <c r="C9" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s" s="5">
         <v>51</v>
       </c>
-      <c r="E9" t="s" s="16">
+      <c r="E9" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="F9" t="s" s="6">
+      <c r="F9" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" ht="189.5" customHeight="1">
-      <c r="A10" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="A10" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" t="s" s="16">
+      <c r="C10" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D10" t="s" s="16">
+      <c r="D10" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="E10" t="s" s="16">
+      <c r="E10" t="s" s="5">
         <v>55</v>
       </c>
-      <c r="F10" t="s" s="6">
+      <c r="F10" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" ht="32" customHeight="1">
-      <c r="A11" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B11" s="15">
+      <c r="A11" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B11" s="13">
         <v>5</v>
       </c>
-      <c r="C11" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s" s="16">
+      <c r="C11" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s" s="5">
         <v>57</v>
       </c>
-      <c r="E11" t="s" s="16">
+      <c r="E11" t="s" s="5">
         <v>58</v>
       </c>
-      <c r="F11" t="s" s="6">
+      <c r="F11" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" ht="80" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13">
         <v>3</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" t="s" s="16">
+      <c r="C12" s="12"/>
+      <c r="D12" t="s" s="5">
         <v>60</v>
       </c>
-      <c r="E12" t="s" s="16">
+      <c r="E12" t="s" s="5">
         <v>61</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15">
-        <v>4</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" t="s" s="16">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" t="s" s="5">
         <v>62</v>
       </c>
-      <c r="E13" t="s" s="16">
+      <c r="E13" t="s" s="5">
         <v>63</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" ht="48" customHeight="1">
-      <c r="A14" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B14" s="13">
         <v>5</v>
       </c>
-      <c r="C14" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s" s="16">
+      <c r="C14" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s" s="5">
         <v>64</v>
       </c>
-      <c r="E14" t="s" s="16">
+      <c r="E14" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="F14" t="s" s="6">
+      <c r="F14" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" t="s" s="16">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="E15" t="s" s="16">
+      <c r="E15" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="A16" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B16" s="13">
         <v>5</v>
       </c>
-      <c r="C16" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s" s="16">
+      <c r="C16" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s" s="5">
         <v>69</v>
       </c>
-      <c r="E16" t="s" s="16">
+      <c r="E16" t="s" s="5">
         <v>70</v>
       </c>
-      <c r="F16" t="s" s="6">
+      <c r="F16" t="s" s="5">
         <v>71</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13">
         <v>3</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" t="s" s="16">
+      <c r="C17" s="12"/>
+      <c r="D17" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="E17" t="s" s="16">
+      <c r="E17" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" ht="128" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15">
-        <v>4</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" t="s" s="16">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" t="s" s="5">
         <v>74</v>
       </c>
-      <c r="E18" t="s" s="16">
+      <c r="E18" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" ht="80" customHeight="1">
-      <c r="A19" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B19" s="15">
+      <c r="A19" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B19" s="13">
         <v>5</v>
       </c>
-      <c r="C19" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s" s="16">
+      <c r="C19" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="E19" t="s" s="16">
+      <c r="E19" t="s" s="5">
         <v>77</v>
       </c>
-      <c r="F19" t="s" s="6">
+      <c r="F19" t="s" s="5">
         <v>78</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15">
-        <v>4</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" t="s" s="16">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13">
+        <v>4</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" t="s" s="5">
         <v>79</v>
       </c>
-      <c r="E20" t="s" s="16">
+      <c r="E20" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" ht="32" customHeight="1">
-      <c r="A21" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B21" s="15">
+      <c r="A21" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B21" s="13">
         <v>5</v>
       </c>
-      <c r="C21" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s" s="16">
+      <c r="C21" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="E21" t="s" s="16">
+      <c r="E21" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="F21" t="s" s="6">
+      <c r="F21" t="s" s="5">
         <v>83</v>
       </c>
-      <c r="G21" s="17"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B22" s="15">
+      <c r="A22" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B22" s="13">
         <v>5</v>
       </c>
-      <c r="C22" t="s" s="16">
+      <c r="C22" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="D22" t="s" s="16">
+      <c r="D22" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="E22" t="s" s="16">
+      <c r="E22" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="F22" t="s" s="6">
+      <c r="F22" t="s" s="5">
         <v>87</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" ht="80" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15">
-        <v>4</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" t="s" s="16">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13">
+        <v>4</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="E23" t="s" s="16">
+      <c r="E23" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" ht="32" customHeight="1">
-      <c r="A24" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B24" s="15">
+      <c r="A24" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B24" s="13">
         <v>5</v>
       </c>
-      <c r="C24" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s" s="16">
+      <c r="C24" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="E24" t="s" s="16">
+      <c r="E24" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="F24" t="s" s="6">
+      <c r="F24" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" ht="48" customHeight="1">
-      <c r="A25" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B25" s="15">
+      <c r="A25" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B25" s="13">
         <v>5</v>
       </c>
-      <c r="C25" t="s" s="16">
+      <c r="C25" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="D25" t="s" s="16">
+      <c r="D25" t="s" s="5">
         <v>93</v>
       </c>
-      <c r="E25" t="s" s="16">
+      <c r="E25" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="F25" t="s" s="6">
+      <c r="F25" t="s" s="5">
         <v>95</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" ht="80" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13">
         <v>2</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" t="s" s="16">
+      <c r="C26" s="12"/>
+      <c r="D26" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="E26" t="s" s="16">
+      <c r="E26" t="s" s="5">
         <v>97</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" ht="32" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13">
         <v>3</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" t="s" s="16">
+      <c r="C27" s="12"/>
+      <c r="D27" t="s" s="5">
         <v>98</v>
       </c>
-      <c r="E27" t="s" s="16">
+      <c r="E27" t="s" s="5">
         <v>99</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B28" s="15">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s" s="16">
+      <c r="A28" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B28" s="13">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="E28" t="s" s="16">
+      <c r="E28" t="s" s="5">
         <v>101</v>
       </c>
-      <c r="F28" t="s" s="6">
+      <c r="F28" t="s" s="5">
         <v>102</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" ht="80" customHeight="1">
-      <c r="A29" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B29" s="15">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s" s="16">
+      <c r="A29" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B29" s="13">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="E29" t="s" s="16">
+      <c r="E29" t="s" s="5">
         <v>104</v>
       </c>
-      <c r="F29" t="s" s="6">
+      <c r="F29" t="s" s="5">
         <v>105</v>
       </c>
-      <c r="G29" s="17"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" ht="80" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13">
         <v>3</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" t="s" s="16">
+      <c r="C30" s="12"/>
+      <c r="D30" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="E30" t="s" s="16">
+      <c r="E30" t="s" s="5">
         <v>107</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15">
-        <v>4</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" t="s" s="16">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13">
+        <v>4</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" t="s" s="5">
         <v>108</v>
       </c>
-      <c r="E31" t="s" s="16">
+      <c r="E31" t="s" s="5">
         <v>109</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" ht="80" customHeight="1">
-      <c r="A32" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B32" s="15">
+      <c r="A32" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B32" s="13">
         <v>5</v>
       </c>
-      <c r="C32" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s" s="16">
+      <c r="C32" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s" s="5">
         <v>110</v>
       </c>
-      <c r="E32" t="s" s="16">
+      <c r="E32" t="s" s="5">
         <v>111</v>
       </c>
-      <c r="F32" t="s" s="6">
+      <c r="F32" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15">
-        <v>4</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" t="s" s="16">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13">
+        <v>4</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" t="s" s="5">
         <v>113</v>
       </c>
-      <c r="E33" t="s" s="16">
+      <c r="E33" t="s" s="5">
         <v>114</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" ht="80" customHeight="1">
-      <c r="A34" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B34" s="15">
+      <c r="A34" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B34" s="13">
         <v>5</v>
       </c>
-      <c r="C34" t="s" s="16">
+      <c r="C34" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D34" t="s" s="16">
+      <c r="D34" t="s" s="5">
         <v>115</v>
       </c>
-      <c r="E34" t="s" s="16">
+      <c r="E34" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="F34" t="s" s="6">
+      <c r="F34" t="s" s="5">
         <v>117</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15">
-        <v>4</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" t="s" s="16">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13">
+        <v>4</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" t="s" s="5">
         <v>118</v>
       </c>
-      <c r="E35" t="s" s="16">
+      <c r="E35" t="s" s="5">
         <v>119</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B36" s="15">
+      <c r="A36" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B36" s="13">
         <v>5</v>
       </c>
-      <c r="C36" t="s" s="16">
+      <c r="C36" t="s" s="5">
         <v>120</v>
       </c>
-      <c r="D36" t="s" s="16">
+      <c r="D36" t="s" s="5">
         <v>121</v>
       </c>
-      <c r="E36" t="s" s="16">
+      <c r="E36" t="s" s="5">
         <v>122</v>
       </c>
-      <c r="F36" t="s" s="6">
+      <c r="F36" t="s" s="5">
         <v>123</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13">
         <v>3</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" t="s" s="16">
+      <c r="C37" s="12"/>
+      <c r="D37" t="s" s="5">
         <v>124</v>
       </c>
-      <c r="E37" t="s" s="16">
+      <c r="E37" t="s" s="5">
         <v>125</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" ht="96" customHeight="1">
-      <c r="A38" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B38" s="15">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s" s="16">
+      <c r="A38" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B38" s="13">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s" s="5">
         <v>126</v>
       </c>
-      <c r="E38" t="s" s="16">
+      <c r="E38" t="s" s="5">
         <v>127</v>
       </c>
-      <c r="F38" t="s" s="6">
+      <c r="F38" t="s" s="5">
         <v>128</v>
       </c>
-      <c r="G38" s="17"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" ht="144" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13">
         <v>3</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" t="s" s="16">
+      <c r="C39" s="12"/>
+      <c r="D39" t="s" s="5">
         <v>129</v>
       </c>
-      <c r="E39" t="s" s="16">
+      <c r="E39" t="s" s="5">
         <v>130</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B40" s="15">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D40" t="s" s="16">
+      <c r="A40" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B40" s="13">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s" s="5">
         <v>131</v>
       </c>
-      <c r="E40" t="s" s="16">
+      <c r="E40" t="s" s="5">
         <v>132</v>
       </c>
-      <c r="F40" t="s" s="6">
+      <c r="F40" t="s" s="5">
         <v>133</v>
       </c>
-      <c r="G40" s="17"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" ht="48" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13">
         <v>3</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" t="s" s="16">
+      <c r="C41" s="12"/>
+      <c r="D41" t="s" s="5">
         <v>134</v>
       </c>
-      <c r="E41" t="s" s="16">
+      <c r="E41" t="s" s="5">
         <v>135</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" ht="16" customHeight="1">
-      <c r="A42" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B42" s="15">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s" s="16">
+      <c r="A42" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="13">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s" s="5">
         <v>136</v>
       </c>
-      <c r="E42" t="s" s="16">
+      <c r="E42" t="s" s="5">
         <v>137</v>
       </c>
-      <c r="F42" t="s" s="6">
+      <c r="F42" t="s" s="5">
         <v>138</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" ht="48" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13">
         <v>3</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" t="s" s="16">
+      <c r="C43" s="12"/>
+      <c r="D43" t="s" s="5">
         <v>139</v>
       </c>
-      <c r="E43" t="s" s="16">
+      <c r="E43" t="s" s="5">
         <v>140</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" ht="192" customHeight="1">
-      <c r="A44" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B44" s="15">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D44" t="s" s="16">
+      <c r="A44" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B44" s="13">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s" s="5">
         <v>141</v>
       </c>
-      <c r="E44" t="s" s="16">
+      <c r="E44" t="s" s="5">
         <v>142</v>
       </c>
-      <c r="F44" t="s" s="6">
+      <c r="F44" t="s" s="5">
         <v>143</v>
       </c>
-      <c r="G44" s="17"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" ht="128" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13">
         <v>2</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" t="s" s="16">
+      <c r="C45" s="12"/>
+      <c r="D45" t="s" s="5">
         <v>144</v>
       </c>
-      <c r="E45" t="s" s="16">
+      <c r="E45" t="s" s="5">
         <v>145</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" ht="32" customHeight="1">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13">
         <v>3</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" t="s" s="16">
+      <c r="C46" s="12"/>
+      <c r="D46" t="s" s="5">
         <v>146</v>
       </c>
-      <c r="E46" t="s" s="16">
+      <c r="E46" t="s" s="5">
         <v>147</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" ht="16" customHeight="1">
-      <c r="A47" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B47" s="15">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s" s="16">
+      <c r="A47" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B47" s="13">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s" s="5">
         <v>148</v>
       </c>
-      <c r="E47" t="s" s="16">
+      <c r="E47" t="s" s="5">
         <v>149</v>
       </c>
-      <c r="F47" t="s" s="6">
+      <c r="F47" t="s" s="5">
         <v>150</v>
       </c>
-      <c r="G47" s="17"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" ht="80" customHeight="1">
-      <c r="A48" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B48" s="15">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s" s="16">
+      <c r="A48" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B48" s="13">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s" s="5">
         <v>151</v>
       </c>
-      <c r="E48" t="s" s="16">
+      <c r="E48" t="s" s="5">
         <v>152</v>
       </c>
-      <c r="F48" t="s" s="6">
+      <c r="F48" t="s" s="5">
         <v>153</v>
       </c>
-      <c r="G48" s="17"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" ht="16" customHeight="1">
-      <c r="A49" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B49" s="15">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s" s="16">
+      <c r="A49" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B49" s="13">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="D49" t="s" s="16">
+      <c r="D49" t="s" s="5">
         <v>154</v>
       </c>
-      <c r="E49" t="s" s="16">
+      <c r="E49" t="s" s="5">
         <v>155</v>
       </c>
-      <c r="F49" t="s" s="6">
+      <c r="F49" t="s" s="5">
         <v>156</v>
       </c>
-      <c r="G49" s="17"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" ht="16" customHeight="1">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13">
         <v>3</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" t="s" s="16">
+      <c r="C50" s="12"/>
+      <c r="D50" t="s" s="5">
         <v>157</v>
       </c>
-      <c r="E50" t="s" s="16">
+      <c r="E50" t="s" s="5">
         <v>158</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" ht="32" customHeight="1">
-      <c r="A51" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B51" s="15">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D51" t="s" s="16">
+      <c r="A51" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B51" s="13">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s" s="5">
         <v>159</v>
       </c>
-      <c r="E51" t="s" s="16">
+      <c r="E51" t="s" s="5">
         <v>160</v>
       </c>
-      <c r="F51" t="s" s="6">
+      <c r="F51" t="s" s="5">
         <v>161</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" ht="16" customHeight="1">
-      <c r="A52" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B52" s="15">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D52" t="s" s="16">
+      <c r="A52" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B52" s="13">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s" s="5">
         <v>162</v>
       </c>
-      <c r="E52" t="s" s="16">
+      <c r="E52" t="s" s="5">
         <v>163</v>
       </c>
-      <c r="F52" t="s" s="6">
+      <c r="F52" t="s" s="5">
         <v>164</v>
       </c>
-      <c r="G52" s="17"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" ht="48" customHeight="1">
-      <c r="A53" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B53" s="15">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D53" t="s" s="16">
+      <c r="A53" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B53" s="13">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s" s="5">
         <v>165</v>
       </c>
-      <c r="E53" t="s" s="16">
+      <c r="E53" t="s" s="5">
         <v>166</v>
       </c>
-      <c r="F53" t="s" s="6">
+      <c r="F53" t="s" s="5">
         <v>167</v>
       </c>
-      <c r="G53" s="17"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" ht="16" customHeight="1">
-      <c r="A54" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B54" s="15">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D54" t="s" s="16">
+      <c r="A54" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B54" s="13">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s" s="5">
         <v>168</v>
       </c>
-      <c r="E54" t="s" s="16">
+      <c r="E54" t="s" s="5">
         <v>169</v>
       </c>
-      <c r="F54" t="s" s="6">
+      <c r="F54" t="s" s="5">
         <v>170</v>
       </c>
-      <c r="G54" s="17"/>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" ht="16" customHeight="1">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13">
         <v>3</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" t="s" s="16">
+      <c r="C55" s="12"/>
+      <c r="D55" t="s" s="5">
         <v>171</v>
       </c>
-      <c r="E55" t="s" s="16">
+      <c r="E55" t="s" s="5">
         <v>172</v>
       </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" ht="16" customHeight="1">
-      <c r="A56" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B56" s="15">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D56" t="s" s="16">
+      <c r="A56" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B56" s="13">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s" s="5">
         <v>173</v>
       </c>
-      <c r="E56" t="s" s="16">
+      <c r="E56" t="s" s="5">
         <v>174</v>
       </c>
-      <c r="F56" t="s" s="6">
+      <c r="F56" t="s" s="5">
         <v>175</v>
       </c>
-      <c r="G56" s="17"/>
+      <c r="G56" s="12"/>
     </row>
     <row r="57" ht="16" customHeight="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13">
         <v>2</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" t="s" s="16">
+      <c r="C57" s="12"/>
+      <c r="D57" t="s" s="5">
         <v>176</v>
       </c>
-      <c r="E57" t="s" s="16">
+      <c r="E57" t="s" s="5">
         <v>177</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" ht="32" customHeight="1">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13">
         <v>3</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" t="s" s="16">
+      <c r="C58" s="12"/>
+      <c r="D58" t="s" s="5">
         <v>178</v>
       </c>
-      <c r="E58" t="s" s="16">
+      <c r="E58" t="s" s="5">
         <v>179</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" ht="32" customHeight="1">
-      <c r="A59" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B59" s="15">
-        <v>4</v>
-      </c>
-      <c r="C59" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D59" t="s" s="16">
+      <c r="A59" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B59" s="13">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s" s="5">
         <v>180</v>
       </c>
-      <c r="E59" t="s" s="16">
+      <c r="E59" t="s" s="5">
         <v>181</v>
       </c>
-      <c r="F59" t="s" s="6">
+      <c r="F59" t="s" s="5">
         <v>182</v>
       </c>
-      <c r="G59" s="17"/>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" ht="16" customHeight="1">
-      <c r="A60" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B60" s="15">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s" s="16">
+      <c r="A60" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B60" s="13">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="D60" t="s" s="16">
+      <c r="D60" t="s" s="5">
         <v>183</v>
       </c>
-      <c r="E60" t="s" s="16">
+      <c r="E60" t="s" s="5">
         <v>184</v>
       </c>
-      <c r="F60" t="s" s="6">
+      <c r="F60" t="s" s="5">
         <v>185</v>
       </c>
-      <c r="G60" s="17"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" ht="32" customHeight="1">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13">
         <v>3</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" t="s" s="16">
+      <c r="C61" s="12"/>
+      <c r="D61" t="s" s="5">
         <v>186</v>
       </c>
-      <c r="E61" t="s" s="16">
+      <c r="E61" t="s" s="5">
         <v>187</v>
       </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" ht="16" customHeight="1">
-      <c r="A62" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B62" s="15">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D62" t="s" s="16">
+      <c r="A62" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B62" s="13">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s" s="5">
         <v>188</v>
       </c>
-      <c r="E62" t="s" s="16">
+      <c r="E62" t="s" s="5">
         <v>189</v>
       </c>
-      <c r="F62" t="s" s="6">
+      <c r="F62" t="s" s="5">
         <v>190</v>
       </c>
-      <c r="G62" s="17"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" ht="32" customHeight="1">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15">
+      <c r="A63" s="12"/>
+      <c r="B63" s="13">
         <v>3</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" t="s" s="16">
+      <c r="C63" s="12"/>
+      <c r="D63" t="s" s="5">
         <v>191</v>
       </c>
-      <c r="E63" t="s" s="16">
+      <c r="E63" t="s" s="5">
         <v>192</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" ht="16" customHeight="1">
-      <c r="A64" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B64" s="15">
-        <v>4</v>
-      </c>
-      <c r="C64" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D64" t="s" s="16">
+      <c r="A64" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B64" s="13">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s" s="5">
         <v>193</v>
       </c>
-      <c r="E64" t="s" s="16">
+      <c r="E64" t="s" s="5">
         <v>194</v>
       </c>
-      <c r="F64" t="s" s="6">
+      <c r="F64" t="s" s="5">
         <v>195</v>
       </c>
-      <c r="G64" s="17"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" ht="32" customHeight="1">
-      <c r="A65" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B65" s="15">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D65" t="s" s="16">
+      <c r="A65" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B65" s="13">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s" s="5">
         <v>196</v>
       </c>
-      <c r="E65" t="s" s="16">
+      <c r="E65" t="s" s="5">
         <v>197</v>
       </c>
-      <c r="F65" t="s" s="6">
+      <c r="F65" t="s" s="5">
         <v>198</v>
       </c>
-      <c r="G65" s="17"/>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" ht="32" customHeight="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="15">
+      <c r="A66" s="12"/>
+      <c r="B66" s="13">
         <v>3</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" t="s" s="16">
+      <c r="C66" s="12"/>
+      <c r="D66" t="s" s="5">
         <v>199</v>
       </c>
-      <c r="E66" t="s" s="16">
+      <c r="E66" t="s" s="5">
         <v>200</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" ht="16" customHeight="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15">
-        <v>4</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" t="s" s="16">
+      <c r="A67" s="12"/>
+      <c r="B67" s="13">
+        <v>4</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" t="s" s="5">
         <v>201</v>
       </c>
-      <c r="E67" t="s" s="16">
+      <c r="E67" t="s" s="5">
         <v>202</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" ht="16" customHeight="1">
-      <c r="A68" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B68" s="15">
+      <c r="A68" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B68" s="13">
         <v>5</v>
       </c>
-      <c r="C68" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D68" t="s" s="16">
+      <c r="C68" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s" s="5">
         <v>203</v>
       </c>
-      <c r="E68" t="s" s="16">
+      <c r="E68" t="s" s="5">
         <v>204</v>
       </c>
-      <c r="F68" t="s" s="6">
+      <c r="F68" t="s" s="5">
         <v>205</v>
       </c>
-      <c r="G68" s="17"/>
+      <c r="G68" s="12"/>
     </row>
     <row r="69" ht="48" customHeight="1">
-      <c r="A69" s="14"/>
-      <c r="B69" s="15">
-        <v>4</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" t="s" s="16">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13">
+        <v>4</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" t="s" s="5">
         <v>206</v>
       </c>
-      <c r="E69" t="s" s="16">
+      <c r="E69" t="s" s="5">
         <v>207</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
     </row>
     <row r="70" ht="32" customHeight="1">
-      <c r="A70" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B70" s="15">
+      <c r="A70" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B70" s="13">
         <v>5</v>
       </c>
-      <c r="C70" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D70" t="s" s="16">
+      <c r="C70" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s" s="5">
         <v>208</v>
       </c>
-      <c r="E70" t="s" s="16">
+      <c r="E70" t="s" s="5">
         <v>209</v>
       </c>
-      <c r="F70" t="s" s="6">
+      <c r="F70" t="s" s="5">
         <v>210</v>
       </c>
-      <c r="G70" s="17"/>
+      <c r="G70" s="12"/>
     </row>
     <row r="71" ht="160" customHeight="1">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15">
+      <c r="A71" s="12"/>
+      <c r="B71" s="13">
         <v>1</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15">
-        <v>4</v>
-      </c>
-      <c r="E71" t="s" s="16">
+      <c r="C71" s="12"/>
+      <c r="D71" s="13">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s" s="5">
         <v>211</v>
       </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
     </row>
     <row r="72" ht="16" customHeight="1">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15">
+      <c r="A72" s="12"/>
+      <c r="B72" s="13">
         <v>2</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" t="s" s="16">
+      <c r="C72" s="12"/>
+      <c r="D72" t="s" s="5">
         <v>212</v>
       </c>
-      <c r="E72" t="s" s="16">
+      <c r="E72" t="s" s="5">
         <v>213</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
     </row>
     <row r="73" ht="32" customHeight="1">
-      <c r="A73" s="14"/>
-      <c r="B73" s="15">
+      <c r="A73" s="12"/>
+      <c r="B73" s="13">
         <v>3</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" t="s" s="16">
+      <c r="C73" s="12"/>
+      <c r="D73" t="s" s="5">
         <v>214</v>
       </c>
-      <c r="E73" t="s" s="16">
+      <c r="E73" t="s" s="5">
         <v>215</v>
       </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
     </row>
     <row r="74" ht="64" customHeight="1">
-      <c r="A74" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B74" s="15">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D74" t="s" s="16">
+      <c r="A74" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B74" s="13">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s" s="5">
         <v>216</v>
       </c>
-      <c r="E74" t="s" s="16">
+      <c r="E74" t="s" s="5">
         <v>217</v>
       </c>
-      <c r="F74" t="s" s="6">
+      <c r="F74" t="s" s="5">
         <v>218</v>
       </c>
-      <c r="G74" s="17"/>
+      <c r="G74" s="12"/>
     </row>
     <row r="75" ht="48" customHeight="1">
-      <c r="A75" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B75" s="15">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s" s="16">
+      <c r="A75" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B75" s="13">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D75" t="s" s="16">
+      <c r="D75" t="s" s="5">
         <v>219</v>
       </c>
-      <c r="E75" t="s" s="16">
+      <c r="E75" t="s" s="5">
         <v>220</v>
       </c>
-      <c r="F75" t="s" s="6">
+      <c r="F75" t="s" s="5">
         <v>221</v>
       </c>
-      <c r="G75" s="17"/>
+      <c r="G75" s="12"/>
     </row>
     <row r="76" ht="32" customHeight="1">
-      <c r="A76" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B76" s="15">
-        <v>4</v>
-      </c>
-      <c r="C76" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D76" t="s" s="16">
+      <c r="A76" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B76" s="13">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s" s="5">
         <v>222</v>
       </c>
-      <c r="E76" t="s" s="16">
+      <c r="E76" t="s" s="5">
         <v>223</v>
       </c>
-      <c r="F76" t="s" s="6">
+      <c r="F76" t="s" s="5">
         <v>224</v>
       </c>
-      <c r="G76" s="17"/>
+      <c r="G76" s="12"/>
     </row>
     <row r="77" ht="16" customHeight="1">
-      <c r="A77" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B77" s="15">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D77" t="s" s="16">
+      <c r="A77" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B77" s="13">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D77" t="s" s="5">
         <v>225</v>
       </c>
-      <c r="E77" t="s" s="16">
+      <c r="E77" t="s" s="5">
         <v>226</v>
       </c>
-      <c r="F77" t="s" s="6">
+      <c r="F77" t="s" s="5">
         <v>227</v>
       </c>
-      <c r="G77" s="17"/>
+      <c r="G77" s="12"/>
     </row>
     <row r="78" ht="13.55" customHeight="1">
-      <c r="A78" s="14"/>
-      <c r="B78" s="15">
+      <c r="A78" s="12"/>
+      <c r="B78" s="13">
         <v>3</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" t="s" s="16">
+      <c r="C78" s="12"/>
+      <c r="D78" t="s" s="5">
         <v>228</v>
       </c>
-      <c r="E78" t="s" s="16">
+      <c r="E78" t="s" s="5">
         <v>229</v>
       </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
     </row>
     <row r="79" ht="96" customHeight="1">
-      <c r="A79" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B79" s="15">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D79" t="s" s="16">
+      <c r="A79" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B79" s="13">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s" s="5">
         <v>230</v>
       </c>
-      <c r="E79" t="s" s="16">
+      <c r="E79" t="s" s="5">
         <v>231</v>
       </c>
-      <c r="F79" t="s" s="6">
+      <c r="F79" t="s" s="5">
         <v>232</v>
       </c>
-      <c r="G79" s="17"/>
+      <c r="G79" s="12"/>
     </row>
     <row r="80" ht="112" customHeight="1">
-      <c r="A80" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B80" s="15">
-        <v>4</v>
-      </c>
-      <c r="C80" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D80" t="s" s="16">
+      <c r="A80" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B80" s="13">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D80" t="s" s="5">
         <v>233</v>
       </c>
-      <c r="E80" t="s" s="16">
+      <c r="E80" t="s" s="5">
         <v>234</v>
       </c>
-      <c r="F80" t="s" s="6">
+      <c r="F80" t="s" s="5">
         <v>235</v>
       </c>
-      <c r="G80" s="17"/>
+      <c r="G80" s="12"/>
     </row>
     <row r="81" ht="16" customHeight="1">
-      <c r="A81" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B81" s="15">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D81" t="s" s="16">
+      <c r="A81" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B81" s="13">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s" s="5">
         <v>236</v>
       </c>
-      <c r="E81" t="s" s="16">
+      <c r="E81" t="s" s="5">
         <v>237</v>
       </c>
-      <c r="F81" t="s" s="6">
+      <c r="F81" t="s" s="5">
         <v>238</v>
       </c>
-      <c r="G81" s="17"/>
+      <c r="G81" s="12"/>
     </row>
     <row r="82" ht="16" customHeight="1">
-      <c r="A82" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B82" s="15">
-        <v>4</v>
-      </c>
-      <c r="C82" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D82" t="s" s="16">
+      <c r="A82" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B82" s="13">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D82" t="s" s="5">
         <v>239</v>
       </c>
-      <c r="E82" t="s" s="16">
+      <c r="E82" t="s" s="5">
         <v>240</v>
       </c>
-      <c r="F82" t="s" s="6">
+      <c r="F82" t="s" s="5">
         <v>241</v>
       </c>
-      <c r="G82" s="17"/>
+      <c r="G82" s="12"/>
     </row>
     <row r="83" ht="16" customHeight="1">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15">
+      <c r="A83" s="12"/>
+      <c r="B83" s="13">
         <v>2</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" t="s" s="16">
+      <c r="C83" s="12"/>
+      <c r="D83" t="s" s="5">
         <v>242</v>
       </c>
-      <c r="E83" t="s" s="16">
+      <c r="E83" t="s" s="5">
         <v>243</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
     </row>
     <row r="84" ht="32" customHeight="1">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15">
+      <c r="A84" s="12"/>
+      <c r="B84" s="13">
         <v>3</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" t="s" s="16">
+      <c r="C84" s="12"/>
+      <c r="D84" t="s" s="5">
         <v>244</v>
       </c>
-      <c r="E84" t="s" s="16">
+      <c r="E84" t="s" s="5">
         <v>245</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
     </row>
     <row r="85" ht="32" customHeight="1">
-      <c r="A85" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B85" s="15">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D85" t="s" s="16">
+      <c r="A85" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B85" s="13">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D85" t="s" s="5">
         <v>246</v>
       </c>
-      <c r="E85" t="s" s="16">
+      <c r="E85" t="s" s="5">
         <v>247</v>
       </c>
-      <c r="F85" t="s" s="6">
+      <c r="F85" t="s" s="5">
         <v>248</v>
       </c>
-      <c r="G85" s="17"/>
+      <c r="G85" s="12"/>
     </row>
     <row r="86" ht="16" customHeight="1">
-      <c r="A86" s="14"/>
-      <c r="B86" s="15">
+      <c r="A86" s="12"/>
+      <c r="B86" s="13">
         <v>3</v>
       </c>
-      <c r="C86" s="14"/>
-      <c r="D86" t="s" s="16">
+      <c r="C86" s="12"/>
+      <c r="D86" t="s" s="5">
         <v>249</v>
       </c>
-      <c r="E86" t="s" s="16">
+      <c r="E86" t="s" s="5">
         <v>250</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
     </row>
     <row r="87" ht="16" customHeight="1">
-      <c r="A87" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B87" s="15">
-        <v>4</v>
-      </c>
-      <c r="C87" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D87" t="s" s="16">
+      <c r="A87" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B87" s="13">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D87" t="s" s="5">
         <v>251</v>
       </c>
-      <c r="E87" t="s" s="16">
+      <c r="E87" t="s" s="5">
         <v>252</v>
       </c>
-      <c r="F87" t="s" s="6">
+      <c r="F87" t="s" s="5">
         <v>253</v>
       </c>
-      <c r="G87" s="17"/>
+      <c r="G87" s="12"/>
     </row>
     <row r="88" ht="32" customHeight="1">
-      <c r="A88" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B88" s="15">
-        <v>4</v>
-      </c>
-      <c r="C88" t="s" s="16">
+      <c r="A88" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B88" s="13">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D88" t="s" s="16">
+      <c r="D88" t="s" s="5">
         <v>254</v>
       </c>
-      <c r="E88" t="s" s="16">
+      <c r="E88" t="s" s="5">
         <v>255</v>
       </c>
-      <c r="F88" t="s" s="6">
+      <c r="F88" t="s" s="5">
         <v>256</v>
       </c>
-      <c r="G88" s="17"/>
+      <c r="G88" s="12"/>
     </row>
     <row r="89" ht="16" customHeight="1">
-      <c r="A89" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B89" s="15">
-        <v>4</v>
-      </c>
-      <c r="C89" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D89" t="s" s="16">
+      <c r="A89" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B89" s="13">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D89" t="s" s="5">
         <v>257</v>
       </c>
-      <c r="E89" t="s" s="16">
+      <c r="E89" t="s" s="5">
         <v>258</v>
       </c>
-      <c r="F89" t="s" s="6">
+      <c r="F89" t="s" s="5">
         <v>259</v>
       </c>
-      <c r="G89" s="17"/>
+      <c r="G89" s="12"/>
     </row>
     <row r="90" ht="16" customHeight="1">
-      <c r="A90" s="14"/>
-      <c r="B90" s="15">
+      <c r="A90" s="12"/>
+      <c r="B90" s="13">
         <v>3</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" t="s" s="16">
+      <c r="C90" s="12"/>
+      <c r="D90" t="s" s="5">
         <v>260</v>
       </c>
-      <c r="E90" t="s" s="16">
+      <c r="E90" t="s" s="5">
         <v>261</v>
       </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
     </row>
     <row r="91" ht="32" customHeight="1">
-      <c r="A91" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B91" s="15">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D91" t="s" s="16">
+      <c r="A91" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B91" s="13">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D91" t="s" s="5">
         <v>262</v>
       </c>
-      <c r="E91" t="s" s="16">
+      <c r="E91" t="s" s="5">
         <v>263</v>
       </c>
-      <c r="F91" t="s" s="6">
+      <c r="F91" t="s" s="5">
         <v>264</v>
       </c>
-      <c r="G91" s="17"/>
+      <c r="G91" s="12"/>
     </row>
     <row r="92" ht="16" customHeight="1">
-      <c r="A92" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B92" s="15">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s" s="16">
+      <c r="A92" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B92" s="13">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D92" t="s" s="16">
+      <c r="D92" t="s" s="5">
         <v>265</v>
       </c>
-      <c r="E92" t="s" s="16">
+      <c r="E92" t="s" s="5">
         <v>266</v>
       </c>
-      <c r="F92" t="s" s="6">
+      <c r="F92" t="s" s="5">
         <v>267</v>
       </c>
-      <c r="G92" s="17"/>
+      <c r="G92" s="12"/>
     </row>
     <row r="93" ht="64" customHeight="1">
-      <c r="A93" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B93" s="15">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s" s="16">
+      <c r="A93" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B93" s="13">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s" s="5">
         <v>120</v>
       </c>
-      <c r="D93" t="s" s="16">
+      <c r="D93" t="s" s="5">
         <v>268</v>
       </c>
-      <c r="E93" t="s" s="16">
+      <c r="E93" t="s" s="5">
         <v>269</v>
       </c>
-      <c r="F93" t="s" s="6">
+      <c r="F93" t="s" s="5">
         <v>270</v>
       </c>
-      <c r="G93" s="17"/>
+      <c r="G93" s="12"/>
     </row>
     <row r="94" ht="32" customHeight="1">
-      <c r="A94" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B94" s="15">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D94" t="s" s="16">
+      <c r="A94" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B94" s="13">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D94" t="s" s="5">
         <v>271</v>
       </c>
-      <c r="E94" t="s" s="16">
+      <c r="E94" t="s" s="5">
         <v>272</v>
       </c>
-      <c r="F94" t="s" s="6">
+      <c r="F94" t="s" s="5">
         <v>273</v>
       </c>
-      <c r="G94" s="17"/>
+      <c r="G94" s="12"/>
     </row>
     <row r="95" ht="32" customHeight="1">
-      <c r="A95" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B95" s="15">
-        <v>4</v>
-      </c>
-      <c r="C95" t="s" s="16">
+      <c r="A95" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B95" s="13">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D95" t="s" s="16">
+      <c r="D95" t="s" s="5">
         <v>274</v>
       </c>
-      <c r="E95" t="s" s="16">
+      <c r="E95" t="s" s="5">
         <v>275</v>
       </c>
-      <c r="F95" t="s" s="6">
+      <c r="F95" t="s" s="5">
         <v>276</v>
       </c>
-      <c r="G95" s="17"/>
+      <c r="G95" s="12"/>
     </row>
     <row r="96" ht="16" customHeight="1">
-      <c r="A96" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B96" s="15">
-        <v>4</v>
-      </c>
-      <c r="C96" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D96" t="s" s="16">
+      <c r="A96" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B96" s="13">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D96" t="s" s="5">
         <v>277</v>
       </c>
-      <c r="E96" t="s" s="16">
+      <c r="E96" t="s" s="5">
         <v>278</v>
       </c>
-      <c r="F96" t="s" s="6">
+      <c r="F96" t="s" s="5">
         <v>279</v>
       </c>
-      <c r="G96" s="17"/>
+      <c r="G96" s="12"/>
     </row>
     <row r="97" ht="32" customHeight="1">
-      <c r="A97" s="14"/>
-      <c r="B97" s="15">
+      <c r="A97" s="12"/>
+      <c r="B97" s="13">
         <v>3</v>
       </c>
-      <c r="C97" s="14"/>
-      <c r="D97" t="s" s="16">
+      <c r="C97" s="12"/>
+      <c r="D97" t="s" s="5">
         <v>280</v>
       </c>
-      <c r="E97" t="s" s="16">
+      <c r="E97" t="s" s="5">
         <v>281</v>
       </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
     </row>
     <row r="98" ht="48" customHeight="1">
-      <c r="A98" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B98" s="15">
-        <v>4</v>
-      </c>
-      <c r="C98" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D98" t="s" s="16">
+      <c r="A98" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B98" s="13">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D98" t="s" s="5">
         <v>282</v>
       </c>
-      <c r="E98" t="s" s="16">
+      <c r="E98" t="s" s="5">
         <v>283</v>
       </c>
-      <c r="F98" t="s" s="6">
+      <c r="F98" t="s" s="5">
         <v>284</v>
       </c>
-      <c r="G98" s="17"/>
+      <c r="G98" s="12"/>
     </row>
     <row r="99" ht="16" customHeight="1">
-      <c r="A99" s="14"/>
-      <c r="B99" s="15">
+      <c r="A99" s="12"/>
+      <c r="B99" s="13">
         <v>3</v>
       </c>
-      <c r="C99" s="14"/>
-      <c r="D99" t="s" s="16">
+      <c r="C99" s="12"/>
+      <c r="D99" t="s" s="5">
         <v>285</v>
       </c>
-      <c r="E99" t="s" s="16">
+      <c r="E99" t="s" s="5">
         <v>286</v>
       </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
     </row>
     <row r="100" ht="16" customHeight="1">
-      <c r="A100" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B100" s="15">
-        <v>4</v>
-      </c>
-      <c r="C100" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D100" t="s" s="16">
+      <c r="A100" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B100" s="13">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D100" t="s" s="5">
         <v>287</v>
       </c>
-      <c r="E100" t="s" s="16">
+      <c r="E100" t="s" s="5">
         <v>288</v>
       </c>
-      <c r="F100" t="s" s="6">
+      <c r="F100" t="s" s="5">
         <v>289</v>
       </c>
-      <c r="G100" s="17"/>
+      <c r="G100" s="12"/>
     </row>
     <row r="101" ht="32" customHeight="1">
-      <c r="A101" s="14"/>
-      <c r="B101" s="15">
+      <c r="A101" s="12"/>
+      <c r="B101" s="13">
         <v>1</v>
       </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="15">
+      <c r="C101" s="12"/>
+      <c r="D101" s="13">
         <v>5</v>
       </c>
-      <c r="E101" t="s" s="16">
+      <c r="E101" t="s" s="5">
         <v>290</v>
       </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
     </row>
     <row r="102" ht="16" customHeight="1">
-      <c r="A102" s="14"/>
-      <c r="B102" s="15">
+      <c r="A102" s="12"/>
+      <c r="B102" s="13">
         <v>2</v>
       </c>
-      <c r="C102" s="14"/>
-      <c r="D102" t="s" s="16">
+      <c r="C102" s="12"/>
+      <c r="D102" t="s" s="5">
         <v>291</v>
       </c>
-      <c r="E102" t="s" s="16">
+      <c r="E102" t="s" s="5">
         <v>292</v>
       </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
     </row>
     <row r="103" ht="16" customHeight="1">
-      <c r="A103" s="14"/>
-      <c r="B103" s="15">
+      <c r="A103" s="12"/>
+      <c r="B103" s="13">
         <v>3</v>
       </c>
-      <c r="C103" s="14"/>
-      <c r="D103" t="s" s="16">
+      <c r="C103" s="12"/>
+      <c r="D103" t="s" s="5">
         <v>293</v>
       </c>
-      <c r="E103" t="s" s="16">
+      <c r="E103" t="s" s="5">
         <v>294</v>
       </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
     </row>
     <row r="104" ht="16" customHeight="1">
-      <c r="A104" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B104" s="15">
-        <v>4</v>
-      </c>
-      <c r="C104" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D104" t="s" s="16">
+      <c r="A104" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B104" s="13">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D104" t="s" s="5">
         <v>295</v>
       </c>
-      <c r="E104" t="s" s="16">
+      <c r="E104" t="s" s="5">
         <v>296</v>
       </c>
-      <c r="F104" t="s" s="6">
+      <c r="F104" t="s" s="5">
         <v>297</v>
       </c>
-      <c r="G104" s="17"/>
+      <c r="G104" s="12"/>
     </row>
     <row r="105" ht="32" customHeight="1">
-      <c r="A105" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B105" s="15">
-        <v>4</v>
-      </c>
-      <c r="C105" t="s" s="16">
+      <c r="A105" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B105" s="13">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D105" t="s" s="16">
+      <c r="D105" t="s" s="5">
         <v>298</v>
       </c>
-      <c r="E105" t="s" s="16">
+      <c r="E105" t="s" s="5">
         <v>299</v>
       </c>
-      <c r="F105" t="s" s="6">
+      <c r="F105" t="s" s="5">
         <v>300</v>
       </c>
-      <c r="G105" s="17"/>
+      <c r="G105" s="12"/>
     </row>
     <row r="106" ht="112" customHeight="1">
-      <c r="A106" s="14"/>
-      <c r="B106" s="15">
+      <c r="A106" s="12"/>
+      <c r="B106" s="13">
         <v>3</v>
       </c>
-      <c r="C106" s="14"/>
-      <c r="D106" t="s" s="16">
+      <c r="C106" s="12"/>
+      <c r="D106" t="s" s="5">
         <v>301</v>
       </c>
-      <c r="E106" t="s" s="16">
+      <c r="E106" t="s" s="5">
         <v>302</v>
       </c>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
     </row>
     <row r="107" ht="48" customHeight="1">
-      <c r="A107" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B107" s="15">
-        <v>4</v>
-      </c>
-      <c r="C107" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D107" t="s" s="16">
+      <c r="A107" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B107" s="13">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D107" t="s" s="5">
         <v>303</v>
       </c>
-      <c r="E107" t="s" s="16">
+      <c r="E107" t="s" s="5">
         <v>304</v>
       </c>
-      <c r="F107" t="s" s="6">
+      <c r="F107" t="s" s="5">
         <v>305</v>
       </c>
-      <c r="G107" s="17"/>
+      <c r="G107" s="12"/>
     </row>
     <row r="108" ht="32" customHeight="1">
-      <c r="A108" s="14"/>
-      <c r="B108" s="15">
+      <c r="A108" s="12"/>
+      <c r="B108" s="13">
         <v>2</v>
       </c>
-      <c r="C108" s="14"/>
-      <c r="D108" t="s" s="16">
+      <c r="C108" s="12"/>
+      <c r="D108" t="s" s="5">
         <v>306</v>
       </c>
-      <c r="E108" t="s" s="16">
+      <c r="E108" t="s" s="5">
         <v>307</v>
       </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
     </row>
     <row r="109" ht="16" customHeight="1">
-      <c r="A109" s="14"/>
-      <c r="B109" s="15">
+      <c r="A109" s="12"/>
+      <c r="B109" s="13">
         <v>3</v>
       </c>
-      <c r="C109" s="14"/>
-      <c r="D109" t="s" s="16">
+      <c r="C109" s="12"/>
+      <c r="D109" t="s" s="5">
         <v>308</v>
       </c>
-      <c r="E109" t="s" s="16">
+      <c r="E109" t="s" s="5">
         <v>309</v>
       </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
     </row>
     <row r="110" ht="64" customHeight="1">
-      <c r="A110" s="14"/>
-      <c r="B110" s="15">
-        <v>4</v>
-      </c>
-      <c r="C110" s="14"/>
-      <c r="D110" t="s" s="16">
+      <c r="A110" s="12"/>
+      <c r="B110" s="13">
+        <v>4</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" t="s" s="5">
         <v>310</v>
       </c>
-      <c r="E110" t="s" s="16">
+      <c r="E110" t="s" s="5">
         <v>311</v>
       </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
     </row>
     <row r="111" ht="16" customHeight="1">
-      <c r="A111" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B111" s="15">
+      <c r="A111" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B111" s="13">
         <v>5</v>
       </c>
-      <c r="C111" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D111" t="s" s="16">
+      <c r="C111" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D111" t="s" s="5">
         <v>312</v>
       </c>
-      <c r="E111" t="s" s="16">
+      <c r="E111" t="s" s="5">
         <v>313</v>
       </c>
-      <c r="F111" t="s" s="6">
+      <c r="F111" t="s" s="5">
         <v>314</v>
       </c>
-      <c r="G111" s="17"/>
+      <c r="G111" s="12"/>
     </row>
     <row r="112" ht="16" customHeight="1">
-      <c r="A112" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B112" s="15">
+      <c r="A112" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B112" s="13">
         <v>5</v>
       </c>
-      <c r="C112" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D112" t="s" s="16">
+      <c r="C112" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D112" t="s" s="5">
         <v>315</v>
       </c>
-      <c r="E112" t="s" s="16">
+      <c r="E112" t="s" s="5">
         <v>316</v>
       </c>
-      <c r="F112" t="s" s="6">
+      <c r="F112" t="s" s="5">
         <v>317</v>
       </c>
-      <c r="G112" s="17"/>
+      <c r="G112" s="12"/>
     </row>
     <row r="113" ht="48" customHeight="1">
-      <c r="A113" s="14"/>
-      <c r="B113" s="15">
-        <v>4</v>
-      </c>
-      <c r="C113" s="14"/>
-      <c r="D113" t="s" s="16">
+      <c r="A113" s="12"/>
+      <c r="B113" s="13">
+        <v>4</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" t="s" s="5">
         <v>318</v>
       </c>
-      <c r="E113" t="s" s="16">
+      <c r="E113" t="s" s="5">
         <v>319</v>
       </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
     </row>
     <row r="114" ht="64" customHeight="1">
-      <c r="A114" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B114" s="15">
+      <c r="A114" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B114" s="13">
         <v>5</v>
       </c>
-      <c r="C114" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D114" t="s" s="16">
+      <c r="C114" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D114" t="s" s="5">
         <v>320</v>
       </c>
-      <c r="E114" t="s" s="16">
+      <c r="E114" t="s" s="5">
         <v>321</v>
       </c>
-      <c r="F114" t="s" s="6">
+      <c r="F114" t="s" s="5">
         <v>322</v>
       </c>
-      <c r="G114" s="17"/>
+      <c r="G114" s="12"/>
     </row>
     <row r="115" ht="16" customHeight="1">
-      <c r="A115" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B115" s="15">
+      <c r="A115" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B115" s="13">
         <v>5</v>
       </c>
-      <c r="C115" t="s" s="16">
+      <c r="C115" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D115" t="s" s="16">
+      <c r="D115" t="s" s="5">
         <v>323</v>
       </c>
-      <c r="E115" t="s" s="16">
+      <c r="E115" t="s" s="5">
         <v>324</v>
       </c>
-      <c r="F115" t="s" s="6">
+      <c r="F115" t="s" s="5">
         <v>325</v>
       </c>
-      <c r="G115" s="17"/>
+      <c r="G115" s="12"/>
     </row>
     <row r="116" ht="32" customHeight="1">
-      <c r="A116" s="14"/>
-      <c r="B116" s="15">
+      <c r="A116" s="12"/>
+      <c r="B116" s="13">
         <v>3</v>
       </c>
-      <c r="C116" s="14"/>
-      <c r="D116" t="s" s="16">
+      <c r="C116" s="12"/>
+      <c r="D116" t="s" s="5">
         <v>326</v>
       </c>
-      <c r="E116" t="s" s="16">
+      <c r="E116" t="s" s="5">
         <v>327</v>
       </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
     </row>
     <row r="117" ht="16" customHeight="1">
-      <c r="A117" s="14"/>
-      <c r="B117" s="15">
-        <v>4</v>
-      </c>
-      <c r="C117" s="14"/>
-      <c r="D117" t="s" s="16">
+      <c r="A117" s="12"/>
+      <c r="B117" s="13">
+        <v>4</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" t="s" s="5">
         <v>328</v>
       </c>
-      <c r="E117" t="s" s="16">
+      <c r="E117" t="s" s="5">
         <v>329</v>
       </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
     </row>
     <row r="118" ht="16" customHeight="1">
-      <c r="A118" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B118" s="15">
+      <c r="A118" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B118" s="13">
         <v>5</v>
       </c>
-      <c r="C118" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D118" t="s" s="16">
+      <c r="C118" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D118" t="s" s="5">
         <v>330</v>
       </c>
-      <c r="E118" t="s" s="16">
+      <c r="E118" t="s" s="5">
         <v>331</v>
       </c>
-      <c r="F118" t="s" s="6">
+      <c r="F118" t="s" s="5">
         <v>332</v>
       </c>
-      <c r="G118" s="17"/>
+      <c r="G118" s="12"/>
     </row>
     <row r="119" ht="32" customHeight="1">
-      <c r="A119" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B119" s="15">
+      <c r="A119" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B119" s="13">
         <v>5</v>
       </c>
-      <c r="C119" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D119" t="s" s="16">
+      <c r="C119" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D119" t="s" s="5">
         <v>333</v>
       </c>
-      <c r="E119" t="s" s="16">
+      <c r="E119" t="s" s="5">
         <v>334</v>
       </c>
-      <c r="F119" t="s" s="6">
+      <c r="F119" t="s" s="5">
         <v>335</v>
       </c>
-      <c r="G119" s="17"/>
+      <c r="G119" s="12"/>
     </row>
     <row r="120" ht="16" customHeight="1">
-      <c r="A120" s="14"/>
-      <c r="B120" s="15">
+      <c r="A120" s="12"/>
+      <c r="B120" s="13">
         <v>3</v>
       </c>
-      <c r="C120" s="14"/>
-      <c r="D120" t="s" s="16">
+      <c r="C120" s="12"/>
+      <c r="D120" t="s" s="5">
         <v>336</v>
       </c>
-      <c r="E120" t="s" s="16">
+      <c r="E120" t="s" s="5">
         <v>337</v>
       </c>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
     </row>
     <row r="121" ht="16" customHeight="1">
-      <c r="A121" s="14"/>
-      <c r="B121" s="15">
-        <v>4</v>
-      </c>
-      <c r="C121" s="14"/>
-      <c r="D121" t="s" s="16">
+      <c r="A121" s="12"/>
+      <c r="B121" s="13">
+        <v>4</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" t="s" s="5">
         <v>338</v>
       </c>
-      <c r="E121" t="s" s="16">
+      <c r="E121" t="s" s="5">
         <v>339</v>
       </c>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
     </row>
     <row r="122" ht="16" customHeight="1">
-      <c r="A122" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B122" s="15">
+      <c r="A122" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B122" s="13">
         <v>5</v>
       </c>
-      <c r="C122" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D122" t="s" s="16">
+      <c r="C122" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D122" t="s" s="5">
         <v>340</v>
       </c>
-      <c r="E122" t="s" s="16">
+      <c r="E122" t="s" s="5">
         <v>341</v>
       </c>
-      <c r="F122" t="s" s="6">
+      <c r="F122" t="s" s="5">
         <v>342</v>
       </c>
-      <c r="G122" s="17"/>
+      <c r="G122" s="12"/>
     </row>
     <row r="123" ht="32" customHeight="1">
-      <c r="A123" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B123" s="15">
+      <c r="A123" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B123" s="13">
         <v>5</v>
       </c>
-      <c r="C123" t="s" s="16">
+      <c r="C123" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D123" t="s" s="16">
+      <c r="D123" t="s" s="5">
         <v>343</v>
       </c>
-      <c r="E123" t="s" s="16">
+      <c r="E123" t="s" s="5">
         <v>344</v>
       </c>
-      <c r="F123" t="s" s="6">
+      <c r="F123" t="s" s="5">
         <v>345</v>
       </c>
-      <c r="G123" s="17"/>
+      <c r="G123" s="12"/>
     </row>
     <row r="124" ht="16" customHeight="1">
-      <c r="A124" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B124" s="15">
+      <c r="A124" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B124" s="13">
         <v>5</v>
       </c>
-      <c r="C124" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D124" t="s" s="16">
+      <c r="C124" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D124" t="s" s="5">
         <v>346</v>
       </c>
-      <c r="E124" t="s" s="16">
+      <c r="E124" t="s" s="5">
         <v>347</v>
       </c>
-      <c r="F124" t="s" s="6">
+      <c r="F124" t="s" s="5">
         <v>348</v>
       </c>
-      <c r="G124" s="17"/>
+      <c r="G124" s="12"/>
     </row>
     <row r="125" ht="16" customHeight="1">
-      <c r="A125" s="14"/>
-      <c r="B125" s="15">
-        <v>4</v>
-      </c>
-      <c r="C125" s="14"/>
-      <c r="D125" t="s" s="16">
+      <c r="A125" s="12"/>
+      <c r="B125" s="13">
+        <v>4</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" t="s" s="5">
         <v>349</v>
       </c>
-      <c r="E125" t="s" s="16">
+      <c r="E125" t="s" s="5">
         <v>350</v>
       </c>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
     </row>
     <row r="126" ht="16" customHeight="1">
-      <c r="A126" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B126" s="15">
+      <c r="A126" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B126" s="13">
         <v>5</v>
       </c>
-      <c r="C126" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D126" t="s" s="16">
+      <c r="C126" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D126" t="s" s="5">
         <v>351</v>
       </c>
-      <c r="E126" t="s" s="16">
+      <c r="E126" t="s" s="5">
         <v>352</v>
       </c>
-      <c r="F126" t="s" s="6">
+      <c r="F126" t="s" s="5">
         <v>353</v>
       </c>
-      <c r="G126" s="17"/>
+      <c r="G126" s="12"/>
     </row>
     <row r="127" ht="16" customHeight="1">
-      <c r="A127" s="14"/>
-      <c r="B127" s="15">
+      <c r="A127" s="12"/>
+      <c r="B127" s="13">
         <v>2</v>
       </c>
-      <c r="C127" s="14"/>
-      <c r="D127" t="s" s="16">
+      <c r="C127" s="12"/>
+      <c r="D127" t="s" s="5">
         <v>354</v>
       </c>
-      <c r="E127" t="s" s="16">
+      <c r="E127" t="s" s="5">
         <v>355</v>
       </c>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
     </row>
     <row r="128" ht="16" customHeight="1">
-      <c r="A128" s="14"/>
-      <c r="B128" s="15">
+      <c r="A128" s="12"/>
+      <c r="B128" s="13">
         <v>3</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" t="s" s="16">
+      <c r="C128" s="12"/>
+      <c r="D128" t="s" s="5">
         <v>356</v>
       </c>
-      <c r="E128" t="s" s="16">
+      <c r="E128" t="s" s="5">
         <v>357</v>
       </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
     </row>
     <row r="129" ht="32" customHeight="1">
-      <c r="A129" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B129" s="15">
-        <v>4</v>
-      </c>
-      <c r="C129" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D129" t="s" s="16">
+      <c r="A129" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B129" s="13">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D129" t="s" s="5">
         <v>358</v>
       </c>
-      <c r="E129" t="s" s="16">
+      <c r="E129" t="s" s="5">
         <v>359</v>
       </c>
-      <c r="F129" t="s" s="6">
+      <c r="F129" t="s" s="5">
         <v>360</v>
       </c>
-      <c r="G129" s="17"/>
+      <c r="G129" s="12"/>
     </row>
     <row r="130" ht="16" customHeight="1">
-      <c r="A130" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B130" s="15">
-        <v>4</v>
-      </c>
-      <c r="C130" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D130" t="s" s="16">
+      <c r="A130" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B130" s="13">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D130" t="s" s="5">
         <v>361</v>
       </c>
-      <c r="E130" t="s" s="16">
+      <c r="E130" t="s" s="5">
         <v>362</v>
       </c>
-      <c r="F130" t="s" s="6">
+      <c r="F130" t="s" s="5">
         <v>363</v>
       </c>
-      <c r="G130" s="17"/>
+      <c r="G130" s="12"/>
     </row>
     <row r="131" ht="32" customHeight="1">
-      <c r="A131" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B131" s="15">
-        <v>4</v>
-      </c>
-      <c r="C131" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D131" t="s" s="16">
+      <c r="A131" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B131" s="13">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D131" t="s" s="5">
         <v>364</v>
       </c>
-      <c r="E131" t="s" s="16">
+      <c r="E131" t="s" s="5">
         <v>365</v>
       </c>
-      <c r="F131" t="s" s="6">
+      <c r="F131" t="s" s="5">
         <v>366</v>
       </c>
-      <c r="G131" s="17"/>
+      <c r="G131" s="12"/>
     </row>
     <row r="132" ht="32" customHeight="1">
-      <c r="A132" s="14"/>
-      <c r="B132" s="15">
+      <c r="A132" s="12"/>
+      <c r="B132" s="13">
         <v>3</v>
       </c>
-      <c r="C132" s="14"/>
-      <c r="D132" t="s" s="16">
+      <c r="C132" s="12"/>
+      <c r="D132" t="s" s="5">
         <v>367</v>
       </c>
-      <c r="E132" t="s" s="16">
+      <c r="E132" t="s" s="5">
         <v>368</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
     </row>
     <row r="133" ht="32" customHeight="1">
-      <c r="A133" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B133" s="15">
-        <v>4</v>
-      </c>
-      <c r="C133" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D133" t="s" s="16">
+      <c r="A133" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B133" s="13">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D133" t="s" s="5">
         <v>369</v>
       </c>
-      <c r="E133" t="s" s="16">
+      <c r="E133" t="s" s="5">
         <v>370</v>
       </c>
-      <c r="F133" t="s" s="6">
+      <c r="F133" t="s" s="5">
         <v>371</v>
       </c>
-      <c r="G133" s="17"/>
+      <c r="G133" s="12"/>
     </row>
     <row r="134" ht="16" customHeight="1">
-      <c r="A134" s="14"/>
-      <c r="B134" s="15">
+      <c r="A134" s="12"/>
+      <c r="B134" s="13">
         <v>1</v>
       </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="15">
+      <c r="C134" s="12"/>
+      <c r="D134" s="13">
         <v>6</v>
       </c>
-      <c r="E134" t="s" s="16">
+      <c r="E134" t="s" s="5">
         <v>372</v>
       </c>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
     </row>
     <row r="135" ht="32" customHeight="1">
-      <c r="A135" s="14"/>
-      <c r="B135" s="15">
+      <c r="A135" s="12"/>
+      <c r="B135" s="13">
         <v>2</v>
       </c>
-      <c r="C135" s="14"/>
-      <c r="D135" t="s" s="16">
+      <c r="C135" s="12"/>
+      <c r="D135" t="s" s="5">
         <v>373</v>
       </c>
-      <c r="E135" t="s" s="16">
+      <c r="E135" t="s" s="5">
         <v>374</v>
       </c>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
     </row>
     <row r="136" ht="32" customHeight="1">
-      <c r="A136" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B136" s="15">
+      <c r="A136" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B136" s="13">
         <v>3</v>
       </c>
-      <c r="C136" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D136" t="s" s="16">
+      <c r="C136" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D136" t="s" s="5">
         <v>375</v>
       </c>
-      <c r="E136" t="s" s="16">
+      <c r="E136" t="s" s="5">
         <v>376</v>
       </c>
-      <c r="F136" t="s" s="6">
+      <c r="F136" t="s" s="5">
         <v>377</v>
       </c>
-      <c r="G136" s="17"/>
+      <c r="G136" s="12"/>
     </row>
     <row r="137" ht="32" customHeight="1">
-      <c r="A137" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B137" s="15">
+      <c r="A137" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B137" s="13">
         <v>3</v>
       </c>
-      <c r="C137" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D137" t="s" s="16">
+      <c r="C137" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D137" t="s" s="5">
         <v>378</v>
       </c>
-      <c r="E137" t="s" s="16">
+      <c r="E137" t="s" s="5">
         <v>379</v>
       </c>
-      <c r="F137" t="s" s="6">
+      <c r="F137" t="s" s="5">
         <v>380</v>
       </c>
-      <c r="G137" s="17"/>
+      <c r="G137" s="12"/>
     </row>
     <row r="138" ht="16" customHeight="1">
-      <c r="A138" s="14"/>
-      <c r="B138" s="15">
+      <c r="A138" s="12"/>
+      <c r="B138" s="13">
         <v>2</v>
       </c>
-      <c r="C138" s="14"/>
-      <c r="D138" t="s" s="16">
+      <c r="C138" s="12"/>
+      <c r="D138" t="s" s="5">
         <v>381</v>
       </c>
-      <c r="E138" t="s" s="16">
+      <c r="E138" t="s" s="5">
         <v>382</v>
       </c>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
     </row>
     <row r="139" ht="16" customHeight="1">
-      <c r="A139" s="14"/>
-      <c r="B139" s="15">
+      <c r="A139" s="12"/>
+      <c r="B139" s="13">
         <v>3</v>
       </c>
-      <c r="C139" s="14"/>
-      <c r="D139" t="s" s="16">
+      <c r="C139" s="12"/>
+      <c r="D139" t="s" s="5">
         <v>383</v>
       </c>
-      <c r="E139" t="s" s="16">
+      <c r="E139" t="s" s="5">
         <v>384</v>
       </c>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
     </row>
     <row r="140" ht="32" customHeight="1">
-      <c r="A140" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B140" s="15">
-        <v>4</v>
-      </c>
-      <c r="C140" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D140" t="s" s="16">
+      <c r="A140" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B140" s="13">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D140" t="s" s="5">
         <v>385</v>
       </c>
-      <c r="E140" t="s" s="16">
+      <c r="E140" t="s" s="5">
         <v>386</v>
       </c>
-      <c r="F140" t="s" s="6">
+      <c r="F140" t="s" s="5">
         <v>387</v>
       </c>
-      <c r="G140" s="17"/>
+      <c r="G140" s="12"/>
     </row>
     <row r="141" ht="16" customHeight="1">
-      <c r="A141" s="14"/>
-      <c r="B141" s="15">
+      <c r="A141" s="12"/>
+      <c r="B141" s="13">
         <v>3</v>
       </c>
-      <c r="C141" s="14"/>
-      <c r="D141" t="s" s="16">
+      <c r="C141" s="12"/>
+      <c r="D141" t="s" s="5">
         <v>388</v>
       </c>
-      <c r="E141" t="s" s="16">
+      <c r="E141" t="s" s="5">
         <v>389</v>
       </c>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
     </row>
     <row r="142" ht="48" customHeight="1">
-      <c r="A142" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B142" s="15">
-        <v>4</v>
-      </c>
-      <c r="C142" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D142" t="s" s="16">
+      <c r="A142" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B142" s="13">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D142" t="s" s="5">
         <v>390</v>
       </c>
-      <c r="E142" t="s" s="16">
+      <c r="E142" t="s" s="5">
         <v>391</v>
       </c>
-      <c r="F142" t="s" s="6">
+      <c r="F142" t="s" s="5">
         <v>392</v>
       </c>
-      <c r="G142" s="17"/>
+      <c r="G142" s="12"/>
     </row>
     <row r="143" ht="96" customHeight="1">
-      <c r="A143" s="14"/>
-      <c r="B143" s="15">
+      <c r="A143" s="12"/>
+      <c r="B143" s="13">
         <v>3</v>
       </c>
-      <c r="C143" s="14"/>
-      <c r="D143" t="s" s="16">
+      <c r="C143" s="12"/>
+      <c r="D143" t="s" s="5">
         <v>393</v>
       </c>
-      <c r="E143" t="s" s="16">
+      <c r="E143" t="s" s="5">
         <v>394</v>
       </c>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
     </row>
     <row r="144" ht="103.75" customHeight="1">
-      <c r="A144" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B144" s="15">
-        <v>4</v>
-      </c>
-      <c r="C144" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="D144" t="s" s="16">
+      <c r="A144" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B144" s="13">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="D144" t="s" s="5">
         <v>395</v>
       </c>
-      <c r="E144" t="s" s="16">
+      <c r="E144" t="s" s="5">
         <v>396</v>
       </c>
-      <c r="F144" t="s" s="6">
+      <c r="F144" t="s" s="5">
         <v>397</v>
       </c>
-      <c r="G144" s="17"/>
+      <c r="G144" s="12"/>
     </row>
     <row r="145" ht="252.95" customHeight="1">
-      <c r="A145" t="s" s="16">
-        <v>40</v>
-      </c>
-      <c r="B145" s="15">
-        <v>4</v>
-      </c>
-      <c r="C145" t="s" s="16">
+      <c r="A145" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B145" s="13">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="D145" t="s" s="16">
+      <c r="D145" t="s" s="5">
         <v>398</v>
       </c>
-      <c r="E145" t="s" s="16">
+      <c r="E145" t="s" s="5">
         <v>399</v>
       </c>
-      <c r="F145" t="s" s="6">
+      <c r="F145" t="s" s="5">
         <v>400</v>
       </c>
-      <c r="G145" s="17"/>
+      <c r="G145" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5476,112 +5464,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="18" customWidth="1"/>
-    <col min="2" max="2" width="36.6719" style="18" customWidth="1"/>
-    <col min="3" max="3" width="20.5156" style="18" customWidth="1"/>
-    <col min="4" max="5" width="10.8516" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="18" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="14" customWidth="1"/>
+    <col min="2" max="2" width="36.6719" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="14" customWidth="1"/>
+    <col min="4" max="5" width="10.8516" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="16">
+      <c r="A1" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="B1" t="s" s="16">
+      <c r="B1" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="C1" t="s" s="16">
+      <c r="C1" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" ht="104.55" customHeight="1">
-      <c r="A2" t="s" s="16">
+      <c r="A2" t="s" s="5">
         <v>401</v>
       </c>
-      <c r="B2" t="s" s="16">
+      <c r="B2" t="s" s="5">
         <v>402</v>
       </c>
-      <c r="C2" t="s" s="16">
+      <c r="C2" t="s" s="5">
         <v>403</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="91.55" customHeight="1">
-      <c r="A3" t="s" s="16">
+      <c r="A3" t="s" s="5">
         <v>404</v>
       </c>
-      <c r="B3" t="s" s="16">
+      <c r="B3" t="s" s="5">
         <v>405</v>
       </c>
-      <c r="C3" t="s" s="16">
+      <c r="C3" t="s" s="5">
         <v>406</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" ht="65.55" customHeight="1">
-      <c r="A4" t="s" s="16">
+      <c r="A4" t="s" s="5">
         <v>407</v>
       </c>
-      <c r="B4" t="s" s="16">
+      <c r="B4" t="s" s="5">
         <v>408</v>
       </c>
-      <c r="C4" t="s" s="16">
+      <c r="C4" t="s" s="5">
         <v>409</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" ht="117.55" customHeight="1">
-      <c r="A5" t="s" s="16">
+      <c r="A5" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="B5" t="s" s="16">
+      <c r="B5" t="s" s="5">
         <v>410</v>
       </c>
-      <c r="C5" t="s" s="16">
+      <c r="C5" t="s" s="5">
         <v>411</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
